--- a/archive/InnovateUK_Funding_Opportunities_Latest_2026-01-28.xlsx
+++ b/archive/InnovateUK_Funding_Opportunities_Latest_2026-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,20 +476,30 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
@@ -531,13 +541,19 @@
           <t>01/01/2026</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>25/11/2026                              16:00</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" s="1" t="n">
+        <v>46351.66666666666</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -577,13 +593,19 @@
           <t>01/01/2026</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>26/02/2026                              16:00</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" s="1" t="n">
+        <v>46079.66666666666</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -619,17 +641,21 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Wednesday 11 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" s="1" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="N4" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -667,7 +693,9 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -705,7 +733,9 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -743,7 +773,9 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -783,13 +815,19 @@
           <t>20/02/2026</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>15/04/2026                              16:00</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
       <c r="L8" s="1" t="n">
+        <v>46127.66666666666</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -829,13 +867,19 @@
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="1" t="n">
+        <v>46007</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>26/11/2027                              16:00</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
       <c r="L9" s="1" t="n">
+        <v>46717.66666666666</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -873,7 +917,9 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" s="1" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -888,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,20 +985,30 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
@@ -961,26 +1017,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Innovate UK Business Connect</t>
+          <t>Innovate Funding Service</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Advanced manufacturing supply chain innovation: feasibility studies</t>
+          <t>TechLocal: Connecting Local Talent to Local Tech Jobs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/advanced-manufacturing-supply-chain-innovation-feasibility-studies/</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2378/overview/ae120ce2-7b72-4cf2-8dde-f78b02d5996d</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-01-28 08:23</t>
+          <t>2026-01-28 10:24</t>
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>46050.34930555556</v>
+        <v>46050.43333333333</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -989,48 +1045,48 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>02/02/2026</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>11/03/2026                              11:00</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>Wednesday 18 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L2" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>£225,000</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>46050</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Innovate UK Business Connect</t>
+          <t>Innovate Funding Service</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TechLocal: Connecting Local Talent to Local Tech Jobs</t>
+          <t>TechLocal AI Professional Degree and Traineeship Accelerator</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/techlocal-connecting-local-talent-to-local-tech-jobs/</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2375/overview/6431359e-eb5c-4f76-b49d-299948107fbd</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-01-28 08:23</t>
+          <t>2026-01-28 10:24</t>
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>46050.34930555556</v>
+        <v>46050.43333333333</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1039,22 +1095,134 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Wednesday 18 March 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>£300,000</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Advanced manufacturing supply chain innovation: feasibility studies</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/advanced-manufacturing-supply-chain-innovation-feasibility-studies/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-01-28 08:23</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>46050.34930555556</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>02/02/2026</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>46055</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>11/03/2026                              11:00</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>£5.0 million</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TechLocal: Connecting Local Talent to Local Tech Jobs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/techlocal-connecting-local-talent-to-local-tech-jobs/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-01-28 08:23</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>46050.34930555556</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J5" s="1" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>18/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L5" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>£7.6 million</t>
         </is>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="N5" s="1" t="n">
         <v>46050</v>
       </c>
     </row>
@@ -1104,13 +1272,13 @@
         <v>46050</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1586,7 +1754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L214"/>
+  <dimension ref="A1:N216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1637,20 +1805,30 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
@@ -1692,17 +1870,23 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="1" t="n">
+        <v>45999</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>10/02/2026                              12:00</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="1" t="n">
+        <v>46063.5</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -1742,17 +1926,23 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="1" t="n">
+        <v>45999</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>22/01/2026                              14:00</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="1" t="n">
+        <v>46044.58333333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£8</t>
         </is>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="N3" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -1792,17 +1982,23 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="1" t="n">
+        <v>45999</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>06/02/2026                              23:59</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" s="1" t="n">
+        <v>46059.99930555555</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="N4" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -1842,17 +2038,23 @@
           <t>15/12/2025</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="1" t="n">
+        <v>46006</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>29/01/2026                              17:00</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" s="1" t="n">
+        <v>46051.70833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>£60,000</t>
         </is>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="N5" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -1892,17 +2094,23 @@
           <t>01/12/2025</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>04/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" s="1" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>£8,500</t>
         </is>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="N6" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -1942,17 +2150,23 @@
           <t>20/11/2025</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="1" t="n">
+        <v>45981</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>02/02/2026                              14:00</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" s="1" t="n">
+        <v>46055.58333333334</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>£500,000</t>
         </is>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="N7" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -1992,17 +2206,23 @@
           <t>02/12/2025</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="1" t="n">
+        <v>45993</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>02/01/2026                              23:59</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" s="1" t="n">
+        <v>46024.99930555555</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="N8" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2042,17 +2262,23 @@
           <t>20/11/2025</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="1" t="n">
+        <v>45981</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>17/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" s="1" t="n">
+        <v>46008.99930555555</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="N9" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2092,17 +2318,23 @@
           <t>01/12/2025</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>15/01/2026                              23:59</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" s="1" t="n">
+        <v>46037.99930555555</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>£200,000</t>
         </is>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="N10" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2142,17 +2374,23 @@
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="1" t="n">
+        <v>46001</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>03/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" s="1" t="n">
+        <v>46056.45833333334</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>£100.0 million</t>
         </is>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="N11" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2192,17 +2430,23 @@
           <t>04/12/2025</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" s="1" t="n">
+        <v>45995</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>05/01/2026                              23:59</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" s="1" t="n">
+        <v>46027.99930555555</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>£25,000</t>
         </is>
       </c>
-      <c r="L12" s="1" t="n">
+      <c r="N12" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2242,17 +2486,23 @@
           <t>26/11/2025</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="1" t="n">
+        <v>45987</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>04/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" s="1" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>£315,000</t>
         </is>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="N13" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2292,13 +2542,19 @@
           <t>10/11/2025</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="1" t="n">
+        <v>45971</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>19/01/2026                              16:00</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
       <c r="L14" s="1" t="n">
+        <v>46041.66666666666</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2338,17 +2594,23 @@
           <t>14/11/2025</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" s="1" t="n">
+        <v>45975</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>11/01/2026                              23:59</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" s="1" t="n">
+        <v>46033.99930555555</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>£2,000</t>
         </is>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="N15" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2388,17 +2650,23 @@
           <t>18/11/2025</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" s="1" t="n">
+        <v>45979</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>02/02/2026                              12:00</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" s="1" t="n">
+        <v>46055.5</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>£1.1 million</t>
         </is>
       </c>
-      <c r="L16" s="1" t="n">
+      <c r="N16" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2438,17 +2706,23 @@
           <t>12/11/2025</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" s="1" t="n">
+        <v>45973</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>02/01/2026                              17:00</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" s="1" t="n">
+        <v>46024.70833333334</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>£3</t>
         </is>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="N17" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2488,17 +2762,23 @@
           <t>10/11/2025</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" s="1" t="n">
+        <v>45971</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L18" s="1" t="n">
+      <c r="N18" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2538,13 +2818,19 @@
           <t>10/11/2025</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" s="1" t="n">
+        <v>45971</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>19/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
       <c r="L19" s="1" t="n">
+        <v>46010.99930555555</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2584,17 +2870,23 @@
           <t>10/11/2025</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" s="1" t="n">
+        <v>45971</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>11/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" s="1" t="n">
+        <v>46002.45833333334</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>£25.0 million</t>
         </is>
       </c>
-      <c r="L20" s="1" t="n">
+      <c r="N20" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2634,17 +2926,23 @@
           <t>10/11/2025</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" s="1" t="n">
+        <v>45971</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>11/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" s="1" t="n">
+        <v>46002.45833333334</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>£25.0 million</t>
         </is>
       </c>
-      <c r="L21" s="1" t="n">
+      <c r="N21" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2684,17 +2982,23 @@
           <t>03/11/2025</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" s="1" t="n">
+        <v>45964</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>25/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" s="1" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>£10.0 million</t>
         </is>
       </c>
-      <c r="L22" s="1" t="n">
+      <c r="N22" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2734,13 +3038,19 @@
           <t>31/10/2025</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" s="1" t="n">
+        <v>45961</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>31/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
       <c r="L23" s="1" t="n">
+        <v>46022.99930555555</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2780,17 +3090,23 @@
           <t>03/11/2025</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" s="1" t="n">
+        <v>45964</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L24" s="1" t="n">
+      <c r="N24" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2830,13 +3146,19 @@
           <t>31/10/2025</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" s="1" t="n">
+        <v>45961</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>31/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
       <c r="L25" s="1" t="n">
+        <v>46022.99930555555</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2876,17 +3198,23 @@
           <t>03/11/2025</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" s="1" t="n">
+        <v>45964</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>15/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" s="1" t="n">
+        <v>46006.99930555555</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L26" s="1" t="n">
+      <c r="N26" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2926,17 +3254,23 @@
           <t>22/10/2025</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" s="1" t="n">
+        <v>45952</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>11/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" s="1" t="n">
+        <v>46002.45833333334</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>£3.5 million</t>
         </is>
       </c>
-      <c r="L27" s="1" t="n">
+      <c r="N27" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2976,17 +3310,23 @@
           <t>23/10/2025</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" s="1" t="n">
+        <v>45953</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>07/01/2026                              11:00</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" s="1" t="n">
+        <v>46029.45833333334</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L28" s="1" t="n">
+      <c r="N28" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3026,17 +3366,23 @@
           <t>22/10/2025</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" s="1" t="n">
+        <v>45952</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>11/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" s="1" t="n">
+        <v>46002.45833333334</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>£15.5 million</t>
         </is>
       </c>
-      <c r="L29" s="1" t="n">
+      <c r="N29" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3076,17 +3422,23 @@
           <t>22/10/2025</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" s="1" t="n">
+        <v>45952</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>11/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" s="1" t="n">
+        <v>46002.45833333334</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>£15.5 million</t>
         </is>
       </c>
-      <c r="L30" s="1" t="n">
+      <c r="N30" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3126,17 +3478,23 @@
           <t>23/10/2025</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" s="1" t="n">
+        <v>45953</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>£20.0 million</t>
         </is>
       </c>
-      <c r="L31" s="1" t="n">
+      <c r="N31" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3176,17 +3534,23 @@
           <t>23/10/2025</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" s="1" t="n">
+        <v>45953</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>£20.0 million</t>
         </is>
       </c>
-      <c r="L32" s="1" t="n">
+      <c r="N32" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3226,17 +3590,23 @@
           <t>20/10/2025</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" s="1" t="n">
+        <v>45950</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>£15.0 million</t>
         </is>
       </c>
-      <c r="L33" s="1" t="n">
+      <c r="N33" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3276,17 +3646,23 @@
           <t>20/10/2025</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J34" s="1" t="n">
+        <v>45950</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>£20.0 million</t>
         </is>
       </c>
-      <c r="L34" s="1" t="n">
+      <c r="N34" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3326,17 +3702,23 @@
           <t>13/10/2025</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J35" s="1" t="n">
+        <v>45943</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>11/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" s="1" t="n">
+        <v>46002.99930555555</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L35" s="1" t="n">
+      <c r="N35" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3376,17 +3758,23 @@
           <t>07/10/2025</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J36" s="1" t="n">
+        <v>45937</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>15/01/2026                              17:00</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" s="1" t="n">
+        <v>46037.70833333334</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>£55.0 million</t>
         </is>
       </c>
-      <c r="L36" s="1" t="n">
+      <c r="N36" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3426,17 +3814,23 @@
           <t>13/10/2025</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" s="1" t="n">
+        <v>45943</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>21/01/2026                              11:00</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" s="1" t="n">
+        <v>46043.45833333334</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L37" s="1" t="n">
+      <c r="N37" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3473,12 +3867,14 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L38" s="1" t="n">
+      <c r="N38" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3515,12 +3911,14 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
         <is>
           <t>£150.0 million</t>
         </is>
       </c>
-      <c r="L39" s="1" t="n">
+      <c r="N39" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3558,7 +3956,9 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" s="1" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3596,7 +3996,9 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" s="1" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3633,12 +4035,14 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
         <is>
           <t>£750</t>
         </is>
       </c>
-      <c r="L42" s="1" t="n">
+      <c r="N42" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3675,12 +4079,14 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
         <is>
           <t>£315,000</t>
         </is>
       </c>
-      <c r="L43" s="1" t="n">
+      <c r="N43" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3718,7 +4124,9 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" s="1" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3758,13 +4166,19 @@
           <t>06/05/2025</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J45" s="1" t="n">
+        <v>45783</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>20/01/2026                              16:00</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
       <c r="L45" s="1" t="n">
+        <v>46042.66666666666</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3804,13 +4218,19 @@
           <t>06/05/2025</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" s="1" t="n">
+        <v>45783</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>20/01/2026                              16:00</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
       <c r="L46" s="1" t="n">
+        <v>46042.66666666666</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3850,13 +4270,19 @@
           <t>03/05/2025</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" s="1" t="n">
+        <v>45780</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>17/02/2026                              16:00</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
       <c r="L47" s="1" t="n">
+        <v>46070.66666666666</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3893,12 +4319,14 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="L48" s="1" t="n">
+      <c r="N48" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3936,7 +4364,9 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" s="1" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3974,7 +4404,9 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" s="1" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4012,7 +4444,9 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" s="1" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4049,12 +4483,14 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
         <is>
           <t>£520.0 million</t>
         </is>
       </c>
-      <c r="L52" s="1" t="n">
+      <c r="N52" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4091,12 +4527,14 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
         <is>
           <t>£150.0 million</t>
         </is>
       </c>
-      <c r="L53" s="1" t="n">
+      <c r="N53" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4133,12 +4571,14 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
         <is>
           <t>£200.0 million</t>
         </is>
       </c>
-      <c r="L54" s="1" t="n">
+      <c r="N54" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4175,12 +4615,14 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
         <is>
           <t>£400.0 million</t>
         </is>
       </c>
-      <c r="L55" s="1" t="n">
+      <c r="N55" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4217,12 +4659,14 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
         <is>
           <t>£660.0 million</t>
         </is>
       </c>
-      <c r="L56" s="1" t="n">
+      <c r="N56" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4259,12 +4703,14 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L57" s="1" t="n">
+      <c r="N57" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4301,12 +4747,14 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L58" s="1" t="n">
+      <c r="N58" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4344,7 +4792,9 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" s="1" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4381,12 +4831,14 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
         <is>
           <t>£130.0 million</t>
         </is>
       </c>
-      <c r="L60" s="1" t="n">
+      <c r="N60" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4423,12 +4875,14 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
         <is>
           <t>£70.0 million</t>
         </is>
       </c>
-      <c r="L61" s="1" t="n">
+      <c r="N61" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4465,12 +4919,14 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="L62" s="1" t="n">
+      <c r="N62" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4507,12 +4963,14 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
         <is>
           <t>£500</t>
         </is>
       </c>
-      <c r="L63" s="1" t="n">
+      <c r="N63" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4549,12 +5007,14 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L64" s="1" t="n">
+      <c r="N64" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4592,7 +5052,9 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" s="1" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4630,7 +5092,9 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" s="1" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4668,7 +5132,9 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" s="1" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4706,7 +5172,9 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" s="1" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4744,7 +5212,9 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" s="1" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4782,7 +5252,9 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" s="1" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4820,7 +5292,9 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" s="1" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4858,7 +5332,9 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" s="1" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4896,7 +5372,9 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" s="1" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4934,7 +5412,9 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" s="1" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4972,7 +5452,9 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" s="1" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -5010,7 +5492,9 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" s="1" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -5047,12 +5531,14 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
         <is>
           <t>£500</t>
         </is>
       </c>
-      <c r="L77" s="1" t="n">
+      <c r="N77" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -5092,17 +5578,23 @@
           <t>11/12/2025</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="J78" s="1" t="n">
+        <v>46002</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>04/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" s="1" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>£3.5 million</t>
         </is>
       </c>
-      <c r="L78" s="1" t="n">
+      <c r="N78" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -5142,17 +5634,23 @@
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="J79" s="1" t="n">
+        <v>46007</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>18/01/2026                              18:00</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" s="1" t="n">
+        <v>46040.75</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>£1,000</t>
         </is>
       </c>
-      <c r="L79" s="1" t="n">
+      <c r="N79" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -5192,17 +5690,23 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="J80" s="1" t="n">
+        <v>45999</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>19/01/2026                              00:00</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" s="1" t="n">
+        <v>46041</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>£50.0 million</t>
         </is>
       </c>
-      <c r="L80" s="1" t="n">
+      <c r="N80" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -5242,13 +5746,19 @@
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="J81" s="1" t="n">
+        <v>46009</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>19/01/2026                              00:00</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
       <c r="L81" s="1" t="n">
+        <v>46041</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -5288,17 +5798,23 @@
           <t>15/01/2026</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="J82" s="1" t="n">
+        <v>46037</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>25/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="L82" s="1" t="n">
+        <v>46078.45833333334</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L82" s="1" t="n">
+      <c r="N82" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -5338,17 +5854,23 @@
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="J83" s="1" t="n">
+        <v>46009</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>09/02/2026                              23:59</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" s="1" t="n">
+        <v>46062.99930555555</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L83" s="1" t="n">
+      <c r="N83" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -5388,13 +5910,19 @@
           <t>16/01/2026</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J84" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>19/03/2026                              14:00</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
       <c r="L84" s="1" t="n">
+        <v>46100.58333333334</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" s="1" t="n">
         <v>46015</v>
       </c>
     </row>
@@ -5434,13 +5962,19 @@
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J85" s="1" t="n">
+        <v>46043</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>21/04/2026                              16:00</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
       <c r="L85" s="1" t="n">
+        <v>46133.66666666666</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -5480,17 +6014,23 @@
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="J86" s="1" t="n">
+        <v>46027</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>25/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="L86" s="1" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>£7.0 million</t>
         </is>
       </c>
-      <c r="L86" s="1" t="n">
+      <c r="N86" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5530,13 +6070,19 @@
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="J87" s="1" t="n">
+        <v>46028</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>15/02/2026                              23:00</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
       <c r="L87" s="1" t="n">
+        <v>46068.95833333334</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5576,17 +6122,23 @@
           <t>04/12/2025</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J88" s="1" t="n">
+        <v>45995</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>19/01/2026                              23:59</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="L88" s="1" t="n">
+        <v>46041.99930555555</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>£25,000</t>
         </is>
       </c>
-      <c r="L88" s="1" t="n">
+      <c r="N88" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5626,17 +6178,23 @@
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="J89" s="1" t="n">
+        <v>46027</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>18/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="L89" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>£33.0 million</t>
         </is>
       </c>
-      <c r="L89" s="1" t="n">
+      <c r="N89" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5676,17 +6234,23 @@
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J90" s="1" t="n">
+        <v>46027</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>11/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="L90" s="1" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>£33.0 million</t>
         </is>
       </c>
-      <c r="L90" s="1" t="n">
+      <c r="N90" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5726,13 +6290,19 @@
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="J91" s="1" t="n">
+        <v>46029</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>12/02/2026                              17:00</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
       <c r="L91" s="1" t="n">
+        <v>46065.70833333334</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5770,7 +6340,9 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" s="1" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5808,7 +6380,9 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" s="1" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5848,13 +6422,19 @@
           <t>08/01/2026</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J94" s="1" t="n">
+        <v>46030</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>17/02/2026                              17:00</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
       <c r="L94" s="1" t="n">
+        <v>46070.70833333334</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5892,7 +6472,9 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" s="1" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5930,7 +6512,9 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" s="1" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5970,17 +6554,23 @@
           <t>08/01/2026</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J97" s="1" t="n">
+        <v>46030</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>04/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="L97" s="1" t="n">
+        <v>46085.45833333334</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L97" s="1" t="n">
+      <c r="N97" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -6020,13 +6610,19 @@
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="J98" s="1" t="n">
+        <v>46027</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>02/09/2027                              16:00</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
       <c r="L98" s="1" t="n">
+        <v>46632.66666666666</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -6066,13 +6662,19 @@
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="J99" s="1" t="n">
+        <v>46041</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>04/03/2026                              12:00</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr"/>
       <c r="L99" s="1" t="n">
+        <v>46085.5</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -6112,13 +6714,19 @@
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="J100" s="1" t="n">
+        <v>46034</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>27/02/2026                              17:00</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
       <c r="L100" s="1" t="n">
+        <v>46080.70833333334</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -6158,13 +6766,19 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="J101" s="1" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>22/09/2027                              16:00</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
       <c r="L101" s="1" t="n">
+        <v>46652.66666666666</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6204,13 +6818,19 @@
           <t>06/05/2026</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="J102" s="1" t="n">
+        <v>46148</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>04/11/2027                              00:00</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr"/>
       <c r="L102" s="1" t="n">
+        <v>46695</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6250,13 +6870,19 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="J103" s="1" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>01/12/2027                              16:00</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr"/>
       <c r="L103" s="1" t="n">
+        <v>46722.66666666666</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6296,13 +6922,19 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr">
+      <c r="J104" s="1" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>07/10/2027                              16:00</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr"/>
       <c r="L104" s="1" t="n">
+        <v>46667.66666666666</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6340,7 +6972,9 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" s="1" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6380,13 +7014,19 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="J106" s="1" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>21/09/2027                              16:00</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr"/>
       <c r="L106" s="1" t="n">
+        <v>46651.66666666666</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6426,13 +7066,19 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="J107" s="1" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>21/09/2027                              16:00</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr"/>
       <c r="L107" s="1" t="n">
+        <v>46651.66666666666</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6472,13 +7118,19 @@
           <t>10/02/2026</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="J108" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>21/09/2027                              00:00</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr"/>
       <c r="L108" s="1" t="n">
+        <v>46651</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6518,17 +7170,23 @@
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="J109" s="1" t="n">
+        <v>46041</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>11/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="L109" s="1" t="n">
+        <v>46064.45833333334</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>£800,000</t>
         </is>
       </c>
-      <c r="L109" s="1" t="n">
+      <c r="N109" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6568,13 +7226,19 @@
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="J110" s="1" t="n">
+        <v>46041</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>09/02/2026                              23:59</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr"/>
       <c r="L110" s="1" t="n">
+        <v>46062.99930555555</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6612,7 +7276,9 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" s="1" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6652,17 +7318,23 @@
           <t>26/01/2026</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="J112" s="1" t="n">
+        <v>46048</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>25/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="L112" s="1" t="n">
+        <v>46078.45833333334</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L112" s="1" t="n">
+      <c r="N112" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6700,7 +7372,9 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" s="1" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6740,13 +7414,19 @@
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="J114" s="1" t="n">
+        <v>46007</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>26/11/2027                              16:00</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr"/>
       <c r="L114" s="1" t="n">
+        <v>46717.66666666666</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6784,7 +7464,9 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" s="1" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6822,7 +7504,9 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" s="1" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6862,13 +7546,19 @@
           <t>20/02/2026</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="J117" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>15/04/2026                              16:00</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr"/>
       <c r="L117" s="1" t="n">
+        <v>46127.66666666666</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6906,7 +7596,9 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" s="1" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6946,13 +7638,19 @@
           <t>01/01/2026</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="J119" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>25/11/2026                              16:00</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr"/>
       <c r="L119" s="1" t="n">
+        <v>46351.66666666666</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6992,13 +7690,19 @@
           <t>01/01/2026</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="J120" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>26/02/2026                              16:00</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr"/>
       <c r="L120" s="1" t="n">
+        <v>46079.66666666666</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -7038,17 +7742,23 @@
           <t>02/02/2026</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="J121" s="1" t="n">
+        <v>46055</v>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>11/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="L121" s="1" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L121" s="1" t="n">
+      <c r="N121" s="1" t="n">
         <v>46050</v>
       </c>
     </row>
@@ -7088,17 +7798,23 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
+      <c r="J122" s="1" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>18/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="L122" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>£7.6 million</t>
         </is>
       </c>
-      <c r="L122" s="1" t="n">
+      <c r="N122" s="1" t="n">
         <v>46050</v>
       </c>
     </row>
@@ -7134,17 +7850,21 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
         <is>
           <t>Wednesday 5 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="L123" s="1" t="n">
+        <v>45966.45833333334</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>£3.0 million</t>
         </is>
       </c>
-      <c r="L123" s="1" t="n">
+      <c r="N123" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7180,17 +7900,21 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
         <is>
           <t>Thursday 24 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="L124" s="1" t="n">
+        <v>45862.45833333334</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L124" s="1" t="n">
+      <c r="N124" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7226,17 +7950,21 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="L125" s="1" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L125" s="1" t="n">
+      <c r="N125" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7272,17 +8000,21 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="L126" s="1" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M126" t="inlineStr">
         <is>
           <t>£50,000</t>
         </is>
       </c>
-      <c r="L126" s="1" t="n">
+      <c r="N126" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7318,17 +8050,21 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
         <is>
           <t>Thursday 4 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="L127" s="1" t="n">
+        <v>45904.45833333334</v>
+      </c>
+      <c r="M127" t="inlineStr">
         <is>
           <t>£250,000</t>
         </is>
       </c>
-      <c r="L127" s="1" t="n">
+      <c r="N127" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7364,13 +8100,17 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
         <is>
           <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr"/>
       <c r="L128" s="1" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7406,17 +8146,21 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="L129" s="1" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
           <t>£3.0 million</t>
         </is>
       </c>
-      <c r="L129" s="1" t="n">
+      <c r="N129" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7452,17 +8196,21 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="L130" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M130" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L130" s="1" t="n">
+      <c r="N130" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7498,17 +8246,21 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="L131" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M131" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L131" s="1" t="n">
+      <c r="N131" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7544,17 +8296,21 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
         <is>
           <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="L132" s="1" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M132" t="inlineStr">
         <is>
           <t>£250,000</t>
         </is>
       </c>
-      <c r="L132" s="1" t="n">
+      <c r="N132" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7590,17 +8346,21 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="L133" s="1" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M133" t="inlineStr">
         <is>
           <t>£1.5 million</t>
         </is>
       </c>
-      <c r="L133" s="1" t="n">
+      <c r="N133" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7636,17 +8396,21 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr">
+      <c r="L134" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M134" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L134" s="1" t="n">
+      <c r="N134" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7682,17 +8446,21 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="L135" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M135" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L135" s="1" t="n">
+      <c r="N135" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7728,17 +8496,21 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
         <is>
           <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr">
+      <c r="L136" s="1" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>£3.0 million</t>
         </is>
       </c>
-      <c r="L136" s="1" t="n">
+      <c r="N136" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7774,17 +8546,21 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
         <is>
           <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="L137" s="1" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M137" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L137" s="1" t="n">
+      <c r="N137" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7820,17 +8596,21 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
         <is>
           <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr">
+      <c r="L138" s="1" t="n">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M138" t="inlineStr">
         <is>
           <t>£500,000</t>
         </is>
       </c>
-      <c r="L138" s="1" t="n">
+      <c r="N138" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7866,17 +8646,21 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="L139" s="1" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M139" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L139" s="1" t="n">
+      <c r="N139" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7912,17 +8696,21 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="L140" s="1" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L140" s="1" t="n">
+      <c r="N140" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7958,17 +8746,21 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="L141" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M141" t="inlineStr">
         <is>
           <t>£2.5 million</t>
         </is>
       </c>
-      <c r="L141" s="1" t="n">
+      <c r="N141" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -8004,17 +8796,21 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="L142" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M142" t="inlineStr">
         <is>
           <t>£2.5 million</t>
         </is>
       </c>
-      <c r="L142" s="1" t="n">
+      <c r="N142" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -8050,17 +8846,21 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="L143" s="1" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M143" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L143" s="1" t="n">
+      <c r="N143" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -8096,17 +8896,21 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="L144" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M144" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L144" s="1" t="n">
+      <c r="N144" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -8142,13 +8946,15 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
         <is>
           <t>Thursday 27 November 2025 4:00pm</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" s="1" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -8184,13 +8990,15 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
         <is>
           <t>Thursday 27 November 2025 4:00pm</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" s="1" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -8226,17 +9034,21 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
         <is>
           <t>Wednesday 17 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="L147" s="1" t="n">
+        <v>45917.45833333334</v>
+      </c>
+      <c r="M147" t="inlineStr">
         <is>
           <t>£8,500</t>
         </is>
       </c>
-      <c r="L147" s="1" t="n">
+      <c r="N147" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -8272,17 +9084,21 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
         <is>
           <t>Wednesday 20 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr">
+      <c r="L148" s="1" t="n">
+        <v>45889.45833333334</v>
+      </c>
+      <c r="M148" t="inlineStr">
         <is>
           <t>£500,000</t>
         </is>
       </c>
-      <c r="L148" s="1" t="n">
+      <c r="N148" s="1" t="n">
         <v>45833</v>
       </c>
     </row>
@@ -8318,17 +9134,21 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr">
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
         <is>
           <t>Wednesday 20 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="L149" s="1" t="n">
+        <v>45889.45833333334</v>
+      </c>
+      <c r="M149" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L149" s="1" t="n">
+      <c r="N149" s="1" t="n">
         <v>45833</v>
       </c>
     </row>
@@ -8364,17 +9184,21 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr">
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
         <is>
           <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="L150" s="1" t="n">
+        <v>45896.45833333334</v>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L150" s="1" t="n">
+      <c r="N150" s="1" t="n">
         <v>45840</v>
       </c>
     </row>
@@ -8410,17 +9234,21 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr">
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
         <is>
           <t>Wednesday 6 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="L151" s="1" t="n">
+        <v>45875.45833333334</v>
+      </c>
+      <c r="M151" t="inlineStr">
         <is>
           <t>£50,000</t>
         </is>
       </c>
-      <c r="L151" s="1" t="n">
+      <c r="N151" s="1" t="n">
         <v>45840</v>
       </c>
     </row>
@@ -8456,13 +9284,17 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr">
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
         <is>
           <t>Wednesday 23 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr"/>
       <c r="L152" s="1" t="n">
+        <v>45861.45833333334</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" s="1" t="n">
         <v>45840</v>
       </c>
     </row>
@@ -8498,17 +9330,21 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr">
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
         <is>
           <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr">
+      <c r="L153" s="1" t="n">
+        <v>45896.45833333334</v>
+      </c>
+      <c r="M153" t="inlineStr">
         <is>
           <t>£300,000</t>
         </is>
       </c>
-      <c r="L153" s="1" t="n">
+      <c r="N153" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -8544,17 +9380,21 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr">
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
         <is>
           <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr">
+      <c r="L154" s="1" t="n">
+        <v>45896.45833333334</v>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>£300,000</t>
         </is>
       </c>
-      <c r="L154" s="1" t="n">
+      <c r="N154" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -8590,17 +9430,21 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr">
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
         <is>
           <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K155" t="inlineStr">
+      <c r="L155" s="1" t="n">
+        <v>45896.45833333334</v>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>£300,000</t>
         </is>
       </c>
-      <c r="L155" s="1" t="n">
+      <c r="N155" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -8636,17 +9480,21 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr">
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
         <is>
           <t>Thursday 17 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr">
+      <c r="L156" s="1" t="n">
+        <v>45855.45833333334</v>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>£200,000</t>
         </is>
       </c>
-      <c r="L156" s="1" t="n">
+      <c r="N156" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -8682,17 +9530,21 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr">
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
         <is>
           <t>Wednesday 3 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr">
+      <c r="L157" s="1" t="n">
+        <v>45903.45833333334</v>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>£750,000</t>
         </is>
       </c>
-      <c r="L157" s="1" t="n">
+      <c r="N157" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -8728,17 +9580,21 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr">
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
         <is>
           <t>Wednesday 1 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr">
+      <c r="L158" s="1" t="n">
+        <v>45931.45833333334</v>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>£1.5 million</t>
         </is>
       </c>
-      <c r="L158" s="1" t="n">
+      <c r="N158" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -8774,17 +9630,21 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr">
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
         <is>
           <t>Wednesday 1 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K159" t="inlineStr">
+      <c r="L159" s="1" t="n">
+        <v>45931.45833333334</v>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>£25.0 million</t>
         </is>
       </c>
-      <c r="L159" s="1" t="n">
+      <c r="N159" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -8820,17 +9680,21 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr">
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
         <is>
           <t>Wednesday 3 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr">
+      <c r="L160" s="1" t="n">
+        <v>45903.45833333334</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L160" s="1" t="n">
+      <c r="N160" s="1" t="n">
         <v>45861</v>
       </c>
     </row>
@@ -8866,17 +9730,21 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr">
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
         <is>
           <t>Wednesday 10 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr">
+      <c r="L161" s="1" t="n">
+        <v>45910.45833333334</v>
+      </c>
+      <c r="M161" t="inlineStr">
         <is>
           <t>£120,000</t>
         </is>
       </c>
-      <c r="L161" s="1" t="n">
+      <c r="N161" s="1" t="n">
         <v>45875</v>
       </c>
     </row>
@@ -8912,17 +9780,21 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr">
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
         <is>
           <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
+      <c r="L162" s="1" t="n">
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M162" t="inlineStr">
         <is>
           <t>£8.0 million</t>
         </is>
       </c>
-      <c r="L162" s="1" t="n">
+      <c r="N162" s="1" t="n">
         <v>45882</v>
       </c>
     </row>
@@ -8958,17 +9830,21 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr">
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
         <is>
           <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr">
+      <c r="L163" s="1" t="n">
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>£4.5 million</t>
         </is>
       </c>
-      <c r="L163" s="1" t="n">
+      <c r="N163" s="1" t="n">
         <v>45882</v>
       </c>
     </row>
@@ -9004,17 +9880,21 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr">
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
         <is>
           <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr">
+      <c r="L164" s="1" t="n">
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M164" t="inlineStr">
         <is>
           <t>£3.5 million</t>
         </is>
       </c>
-      <c r="L164" s="1" t="n">
+      <c r="N164" s="1" t="n">
         <v>45882</v>
       </c>
     </row>
@@ -9050,17 +9930,21 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr">
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
         <is>
           <t>Wednesday 10 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr">
+      <c r="L165" s="1" t="n">
+        <v>45910.45833333334</v>
+      </c>
+      <c r="M165" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L165" s="1" t="n">
+      <c r="N165" s="1" t="n">
         <v>45889</v>
       </c>
     </row>
@@ -9096,17 +9980,21 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr">
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
         <is>
           <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr">
+      <c r="L166" s="1" t="n">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M166" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L166" s="1" t="n">
+      <c r="N166" s="1" t="n">
         <v>45896</v>
       </c>
     </row>
@@ -9142,13 +10030,17 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr">
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
         <is>
           <t>Wednesday 17 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr"/>
       <c r="L167" s="1" t="n">
+        <v>45917.45833333334</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" s="1" t="n">
         <v>45896</v>
       </c>
     </row>
@@ -9184,17 +10076,21 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr">
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
         <is>
           <t>Wednesday 5 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K168" t="inlineStr">
+      <c r="L168" s="1" t="n">
+        <v>45966.45833333334</v>
+      </c>
+      <c r="M168" t="inlineStr">
         <is>
           <t>£3.0 million</t>
         </is>
       </c>
-      <c r="L168" s="1" t="n">
+      <c r="N168" s="1" t="n">
         <v>45896</v>
       </c>
     </row>
@@ -9230,17 +10126,21 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr">
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
         <is>
           <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr">
+      <c r="L169" s="1" t="n">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M169" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L169" s="1" t="n">
+      <c r="N169" s="1" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -9276,17 +10176,21 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr">
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
         <is>
           <t>Wednesday 22 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K170" t="inlineStr">
+      <c r="L170" s="1" t="n">
+        <v>45952.45833333334</v>
+      </c>
+      <c r="M170" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L170" s="1" t="n">
+      <c r="N170" s="1" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -9322,17 +10226,21 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr">
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
         <is>
           <t>Tuesday 28 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr">
+      <c r="L171" s="1" t="n">
+        <v>45958.45833333334</v>
+      </c>
+      <c r="M171" t="inlineStr">
         <is>
           <t>£300,000</t>
         </is>
       </c>
-      <c r="L171" s="1" t="n">
+      <c r="N171" s="1" t="n">
         <v>45910</v>
       </c>
     </row>
@@ -9368,17 +10276,21 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr">
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
         <is>
           <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr">
+      <c r="L172" s="1" t="n">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M172" t="inlineStr">
         <is>
           <t>£40,000</t>
         </is>
       </c>
-      <c r="L172" s="1" t="n">
+      <c r="N172" s="1" t="n">
         <v>45910</v>
       </c>
     </row>
@@ -9414,17 +10326,19 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr">
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
         <is>
           <t>There is no submission deadline</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
         <is>
           <t>£20.0 million</t>
         </is>
       </c>
-      <c r="L173" s="1" t="n">
+      <c r="N173" s="1" t="n">
         <v>45917</v>
       </c>
     </row>
@@ -9460,17 +10374,21 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr">
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
         <is>
           <t>Thursday 4 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr">
+      <c r="L174" s="1" t="n">
+        <v>45995.45833333334</v>
+      </c>
+      <c r="M174" t="inlineStr">
         <is>
           <t>£250,000</t>
         </is>
       </c>
-      <c r="L174" s="1" t="n">
+      <c r="N174" s="1" t="n">
         <v>45917</v>
       </c>
     </row>
@@ -9506,17 +10424,21 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr">
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
         <is>
           <t>Monday 3 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K175" t="inlineStr">
+      <c r="L175" s="1" t="n">
+        <v>45964.45833333334</v>
+      </c>
+      <c r="M175" t="inlineStr">
         <is>
           <t>£25,000</t>
         </is>
       </c>
-      <c r="L175" s="1" t="n">
+      <c r="N175" s="1" t="n">
         <v>45917</v>
       </c>
     </row>
@@ -9552,17 +10474,21 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr">
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
         <is>
           <t>Wednesday 22 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr">
+      <c r="L176" s="1" t="n">
+        <v>45952.45833333334</v>
+      </c>
+      <c r="M176" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L176" s="1" t="n">
+      <c r="N176" s="1" t="n">
         <v>45917</v>
       </c>
     </row>
@@ -9598,17 +10524,21 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr">
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
         <is>
           <t>Wednesday 3 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr">
+      <c r="L177" s="1" t="n">
+        <v>45994.45833333334</v>
+      </c>
+      <c r="M177" t="inlineStr">
         <is>
           <t>£500,000</t>
         </is>
       </c>
-      <c r="L177" s="1" t="n">
+      <c r="N177" s="1" t="n">
         <v>45924</v>
       </c>
     </row>
@@ -9644,17 +10574,21 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr">
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
         <is>
           <t>Wednesday 21 January 2026 11:00am</t>
         </is>
       </c>
-      <c r="K178" t="inlineStr">
+      <c r="L178" s="1" t="n">
+        <v>46043.45833333334</v>
+      </c>
+      <c r="M178" t="inlineStr">
         <is>
           <t>£600,000</t>
         </is>
       </c>
-      <c r="L178" s="1" t="n">
+      <c r="N178" s="1" t="n">
         <v>45931</v>
       </c>
     </row>
@@ -9690,17 +10624,21 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr">
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
         <is>
           <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K179" t="inlineStr">
+      <c r="L179" s="1" t="n">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M179" t="inlineStr">
         <is>
           <t>£250,000</t>
         </is>
       </c>
-      <c r="L179" s="1" t="n">
+      <c r="N179" s="1" t="n">
         <v>45938</v>
       </c>
     </row>
@@ -9736,13 +10674,17 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr">
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
         <is>
           <t>Wednesday 22 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr"/>
       <c r="L180" s="1" t="n">
+        <v>45952.45833333334</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" s="1" t="n">
         <v>45938</v>
       </c>
     </row>
@@ -9778,17 +10720,21 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr">
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K181" t="inlineStr">
+      <c r="L181" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M181" t="inlineStr">
         <is>
           <t>£4.0 million</t>
         </is>
       </c>
-      <c r="L181" s="1" t="n">
+      <c r="N181" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -9824,17 +10770,21 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr">
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K182" t="inlineStr">
+      <c r="L182" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M182" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L182" s="1" t="n">
+      <c r="N182" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -9870,17 +10820,21 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr">
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
         <is>
           <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr">
+      <c r="L183" s="1" t="n">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M183" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L183" s="1" t="n">
+      <c r="N183" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -9916,17 +10870,21 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr">
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
         <is>
           <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr">
+      <c r="L184" s="1" t="n">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M184" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L184" s="1" t="n">
+      <c r="N184" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -9962,17 +10920,21 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr">
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr">
+      <c r="L185" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M185" t="inlineStr">
         <is>
           <t>£500,000</t>
         </is>
       </c>
-      <c r="L185" s="1" t="n">
+      <c r="N185" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -10008,17 +10970,21 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr">
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K186" t="inlineStr">
+      <c r="L186" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M186" t="inlineStr">
         <is>
           <t>£4.0 million</t>
         </is>
       </c>
-      <c r="L186" s="1" t="n">
+      <c r="N186" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -10054,13 +11020,17 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr">
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
         <is>
           <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K187" t="inlineStr"/>
       <c r="L187" s="1" t="n">
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -10096,17 +11066,21 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr">
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
         <is>
           <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K188" t="inlineStr">
+      <c r="L188" s="1" t="n">
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M188" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="L188" s="1" t="n">
+      <c r="N188" s="1" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -10142,17 +11116,21 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr">
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
         <is>
           <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K189" t="inlineStr">
+      <c r="L189" s="1" t="n">
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M189" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L189" s="1" t="n">
+      <c r="N189" s="1" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -10188,17 +11166,21 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr">
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
         <is>
           <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K190" t="inlineStr">
+      <c r="L190" s="1" t="n">
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M190" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L190" s="1" t="n">
+      <c r="N190" s="1" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -10234,17 +11216,21 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr">
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
         <is>
           <t>Wednesday 7 January 2026 11:00am</t>
         </is>
       </c>
-      <c r="K191" t="inlineStr">
+      <c r="L191" s="1" t="n">
+        <v>46029.45833333334</v>
+      </c>
+      <c r="M191" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L191" s="1" t="n">
+      <c r="N191" s="1" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -10280,17 +11266,21 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr">
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
         <is>
           <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K192" t="inlineStr">
+      <c r="L192" s="1" t="n">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M192" t="inlineStr">
         <is>
           <t>£8,500</t>
         </is>
       </c>
-      <c r="L192" s="1" t="n">
+      <c r="N192" s="1" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -10326,17 +11316,21 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr">
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K193" t="inlineStr">
+      <c r="L193" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M193" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L193" s="1" t="n">
+      <c r="N193" s="1" t="n">
         <v>45959</v>
       </c>
     </row>
@@ -10372,17 +11366,21 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr">
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
         <is>
           <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K194" t="inlineStr">
+      <c r="L194" s="1" t="n">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M194" t="inlineStr">
         <is>
           <t>£3.4 million</t>
         </is>
       </c>
-      <c r="L194" s="1" t="n">
+      <c r="N194" s="1" t="n">
         <v>45959</v>
       </c>
     </row>
@@ -10418,17 +11416,21 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr">
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
         <is>
           <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K195" t="inlineStr">
+      <c r="L195" s="1" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M195" t="inlineStr">
         <is>
           <t>£3.0 million</t>
         </is>
       </c>
-      <c r="L195" s="1" t="n">
+      <c r="N195" s="1" t="n">
         <v>45959</v>
       </c>
     </row>
@@ -10464,17 +11466,21 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr">
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
         <is>
           <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K196" t="inlineStr">
+      <c r="L196" s="1" t="n">
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M196" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="L196" s="1" t="n">
+      <c r="N196" s="1" t="n">
         <v>45966</v>
       </c>
     </row>
@@ -10510,17 +11516,21 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr">
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
         <is>
           <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K197" t="inlineStr">
+      <c r="L197" s="1" t="n">
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M197" t="inlineStr">
         <is>
           <t>£4.0 million</t>
         </is>
       </c>
-      <c r="L197" s="1" t="n">
+      <c r="N197" s="1" t="n">
         <v>45966</v>
       </c>
     </row>
@@ -10556,13 +11566,17 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr">
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
         <is>
           <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K198" t="inlineStr"/>
       <c r="L198" s="1" t="n">
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" s="1" t="n">
         <v>45966</v>
       </c>
     </row>
@@ -10598,17 +11612,21 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr">
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K199" t="inlineStr">
+      <c r="L199" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M199" t="inlineStr">
         <is>
           <t>£750,000</t>
         </is>
       </c>
-      <c r="L199" s="1" t="n">
+      <c r="N199" s="1" t="n">
         <v>45966</v>
       </c>
     </row>
@@ -10644,17 +11662,21 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr">
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
         <is>
           <t>Wednesday 4 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K200" t="inlineStr">
+      <c r="L200" s="1" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M200" t="inlineStr">
         <is>
           <t>£75,000</t>
         </is>
       </c>
-      <c r="L200" s="1" t="n">
+      <c r="N200" s="1" t="n">
         <v>45987</v>
       </c>
     </row>
@@ -10690,17 +11712,21 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr">
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
         <is>
           <t>Wednesday 4 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K201" t="inlineStr">
+      <c r="L201" s="1" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M201" t="inlineStr">
         <is>
           <t>£8,500</t>
         </is>
       </c>
-      <c r="L201" s="1" t="n">
+      <c r="N201" s="1" t="n">
         <v>45987</v>
       </c>
     </row>
@@ -10736,17 +11762,21 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr">
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
         <is>
           <t>Tuesday 3 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K202" t="inlineStr">
+      <c r="L202" s="1" t="n">
+        <v>46056.45833333334</v>
+      </c>
+      <c r="M202" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L202" s="1" t="n">
+      <c r="N202" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10782,17 +11812,21 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr">
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
         <is>
           <t>Wednesday 4 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K203" t="inlineStr">
+      <c r="L203" s="1" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M203" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L203" s="1" t="n">
+      <c r="N203" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10828,17 +11862,21 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr">
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
         <is>
           <t>Wednesday 25 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K204" t="inlineStr">
+      <c r="L204" s="1" t="n">
+        <v>46078.45833333334</v>
+      </c>
+      <c r="M204" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L204" s="1" t="n">
+      <c r="N204" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -10874,17 +11912,21 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr">
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
         <is>
           <t>Thursday 7 May 2026 11:00am</t>
         </is>
       </c>
-      <c r="K205" t="inlineStr">
+      <c r="L205" s="1" t="n">
+        <v>46149.45833333334</v>
+      </c>
+      <c r="M205" t="inlineStr">
         <is>
           <t>£250,000</t>
         </is>
       </c>
-      <c r="L205" s="1" t="n">
+      <c r="N205" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -10920,17 +11962,21 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr">
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
         <is>
           <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K206" t="inlineStr">
+      <c r="L206" s="1" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M206" t="inlineStr">
         <is>
           <t>£1.5 million</t>
         </is>
       </c>
-      <c r="L206" s="1" t="n">
+      <c r="N206" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -10966,17 +12012,21 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr">
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
         <is>
           <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K207" t="inlineStr">
+      <c r="L207" s="1" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M207" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L207" s="1" t="n">
+      <c r="N207" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -11012,17 +12062,21 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr">
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
         <is>
           <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K208" t="inlineStr">
+      <c r="L208" s="1" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M208" t="inlineStr">
         <is>
           <t>£300,000</t>
         </is>
       </c>
-      <c r="L208" s="1" t="n">
+      <c r="N208" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -11058,17 +12112,21 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr">
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
         <is>
           <t>Wednesday 11 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K209" t="inlineStr">
+      <c r="L209" s="1" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M209" t="inlineStr">
         <is>
           <t>£1.5 million</t>
         </is>
       </c>
-      <c r="L209" s="1" t="n">
+      <c r="N209" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -11104,17 +12162,21 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr">
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
         <is>
           <t>Wednesday 18 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K210" t="inlineStr">
+      <c r="L210" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M210" t="inlineStr">
         <is>
           <t>£25.0 million</t>
         </is>
       </c>
-      <c r="L210" s="1" t="n">
+      <c r="N210" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -11150,17 +12212,21 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr">
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
         <is>
           <t>Wednesday 4 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K211" t="inlineStr">
+      <c r="L211" s="1" t="n">
+        <v>46085.45833333334</v>
+      </c>
+      <c r="M211" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L211" s="1" t="n">
+      <c r="N211" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -11196,17 +12262,21 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr">
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
         <is>
           <t>Wednesday 11 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K212" t="inlineStr">
+      <c r="L212" s="1" t="n">
+        <v>46064.45833333334</v>
+      </c>
+      <c r="M212" t="inlineStr">
         <is>
           <t>£32,000</t>
         </is>
       </c>
-      <c r="L212" s="1" t="n">
+      <c r="N212" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -11242,17 +12312,21 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr">
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
         <is>
           <t>Wednesday 25 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K213" t="inlineStr">
+      <c r="L213" s="1" t="n">
+        <v>46078.45833333334</v>
+      </c>
+      <c r="M213" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L213" s="1" t="n">
+      <c r="N213" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -11288,18 +12362,122 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr">
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
         <is>
           <t>Wednesday 11 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K214" t="inlineStr">
+      <c r="L214" s="1" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M214" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L214" s="1" t="n">
+      <c r="N214" s="1" t="n">
         <v>46043</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>TechLocal: Connecting Local Talent to Local Tech Jobs</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2378/overview/ae120ce2-7b72-4cf2-8dde-f78b02d5996d</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2026-01-28 10:24</t>
+        </is>
+      </c>
+      <c r="E215" s="1" t="n">
+        <v>46050.43333333333</v>
+      </c>
+      <c r="F215" t="b">
+        <v>1</v>
+      </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="b">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>Wednesday 18 March 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L215" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>£225,000</t>
+        </is>
+      </c>
+      <c r="N215" s="1" t="n">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>TechLocal AI Professional Degree and Traineeship Accelerator</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2375/overview/6431359e-eb5c-4f76-b49d-299948107fbd</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2026-01-28 10:24</t>
+        </is>
+      </c>
+      <c r="E216" s="1" t="n">
+        <v>46050.43333333333</v>
+      </c>
+      <c r="F216" t="b">
+        <v>1</v>
+      </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="b">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>Wednesday 18 March 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L216" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>£300,000</t>
+        </is>
+      </c>
+      <c r="N216" s="1" t="n">
+        <v>46050</v>
       </c>
     </row>
   </sheetData>
@@ -11358,10 +12536,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
@@ -11371,10 +12549,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C4" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
@@ -11414,7 +12592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11465,20 +12643,30 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
